--- a/CPU_sheet.xlsx
+++ b/CPU_sheet.xlsx
@@ -513,9 +513,6 @@
     <t>GOAL_POS</t>
   </si>
   <si>
-    <t>WON</t>
-  </si>
-  <si>
     <t>FB</t>
   </si>
   <si>
@@ -523,6 +520,9 @@
   </si>
   <si>
     <t>ASR</t>
+  </si>
+  <si>
+    <t>GOAL_REACHED</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1548,7 @@
         <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>93</v>
@@ -1654,7 +1654,7 @@
         <v>95</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1785,7 +1785,7 @@
         <v>101</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>102</v>
@@ -1794,7 +1794,7 @@
         <v>101</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1845,7 +1845,7 @@
         <v>95</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>103</v>
@@ -1854,14 +1854,15 @@
         <v>95</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1871,7 +1872,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
+      <selection activeCell="B17" sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,8 +2019,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2029,7 +2031,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
+      <selection activeCell="B17" sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,8 +2178,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2187,7 +2190,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
